--- a/Zadania - Analiza korelacji.xlsx
+++ b/Zadania - Analiza korelacji.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2CFCFD-F803-41D3-B64D-A282F97E2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zad 1" sheetId="20" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="zad 10" sheetId="8" r:id="rId10"/>
     <sheet name="zad 11" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>LZ 872ES</t>
   </si>
@@ -368,12 +369,30 @@
   </si>
   <si>
     <t>Silniej skolerowana z liczbą ludności jest liczba urodzeń ponieważ wartość bezwzględna dla r xy jest wyższa</t>
+  </si>
+  <si>
+    <t>A)</t>
+  </si>
+  <si>
+    <t>kow=</t>
+  </si>
+  <si>
+    <t>kowariancja bardzo silna o znaku ujemnym</t>
+  </si>
+  <si>
+    <t>C)</t>
+  </si>
+  <si>
+    <t>cena i wiek</t>
+  </si>
+  <si>
+    <t>cena i przebieg=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1231,77 +1250,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
-    <cellStyle name="Normalny 3" xfId="2"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2353,7 +2374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2391,7 +2418,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2410,9 +2443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2450,9 +2483,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2487,7 +2520,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2522,7 +2555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2695,24 +2728,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2720,94 +2753,94 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.45" customHeight="1">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:20" ht="14.4" customHeight="1">
+      <c r="A2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="105" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
       <c r="K3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" customHeight="1">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:20" ht="14.4" customHeight="1">
+      <c r="A4" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
       <c r="K4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="27.6" customHeight="1" thickBot="1">
@@ -2843,13 +2876,13 @@
       <c r="A10" s="60">
         <v>2003</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="72">
         <v>2191172</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="72">
         <v>21261</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="72">
         <v>22807</v>
       </c>
       <c r="E10" s="72">
@@ -2881,13 +2914,13 @@
       <c r="A11" s="60">
         <v>2004</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="72">
         <v>2185156</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="72">
         <v>20794</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="72">
         <v>22797</v>
       </c>
       <c r="E11" s="72">
@@ -2915,13 +2948,13 @@
       <c r="A12" s="60">
         <v>2005</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="72">
         <v>2179611</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="72">
         <v>21346</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="72">
         <v>23182</v>
       </c>
       <c r="E12" s="72">
@@ -2949,13 +2982,13 @@
       <c r="A13" s="60">
         <v>2006</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="72">
         <v>2172766</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="72">
         <v>21496</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="72">
         <v>22678</v>
       </c>
       <c r="E13" s="72">
@@ -2983,13 +3016,13 @@
       <c r="A14" s="60">
         <v>2007</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="72">
         <v>2166213</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="72">
         <v>21795</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="72">
         <v>23323</v>
       </c>
       <c r="E14" s="72">
@@ -3017,13 +3050,13 @@
       <c r="A15" s="60">
         <v>2008</v>
       </c>
-      <c r="B15" s="101">
+      <c r="B15" s="72">
         <v>2161832</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="72">
         <v>23009</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="72">
         <v>23428</v>
       </c>
       <c r="E15" s="72">
@@ -3051,13 +3084,13 @@
       <c r="A16" s="60">
         <v>2009</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B16" s="72">
         <v>2157202</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="72">
         <v>22964</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="72">
         <v>23703</v>
       </c>
       <c r="E16" s="72">
@@ -3085,13 +3118,13 @@
       <c r="A17" s="60">
         <v>2010</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="72">
         <v>2178611</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="72">
         <v>22635</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="72">
         <v>23037</v>
       </c>
       <c r="E17" s="72">
@@ -3119,13 +3152,13 @@
       <c r="A18" s="60">
         <v>2011</v>
       </c>
-      <c r="B18" s="101">
+      <c r="B18" s="72">
         <v>2171857</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="72">
         <v>21363</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="72">
         <v>22981</v>
       </c>
       <c r="E18" s="72">
@@ -3153,13 +3186,13 @@
       <c r="A19" s="60">
         <v>2012</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="72">
         <v>2165651</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="72">
         <v>21214</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="72">
         <v>22562</v>
       </c>
       <c r="E19" s="72">
@@ -3187,13 +3220,13 @@
       <c r="A20" s="60">
         <v>2013</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="72">
         <v>2156150</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="72">
         <v>19738</v>
       </c>
-      <c r="D20" s="101">
+      <c r="D20" s="72">
         <v>22849</v>
       </c>
       <c r="E20" s="72">
@@ -3221,13 +3254,13 @@
       <c r="A21" s="60">
         <v>2014</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="72">
         <v>2147746</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="72">
         <v>19828</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="72">
         <v>22107</v>
       </c>
       <c r="E21" s="72">
@@ -3255,13 +3288,13 @@
       <c r="A22" s="60">
         <v>2015</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="72">
         <v>2139726</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="72">
         <v>19715</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="72">
         <v>22816</v>
       </c>
       <c r="E22" s="72">
@@ -3289,13 +3322,13 @@
       <c r="A23" s="60">
         <v>2016</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="72">
         <v>2133340</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="72">
         <v>19666</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="72">
         <v>22284</v>
       </c>
       <c r="E23" s="72">
@@ -3323,13 +3356,13 @@
       <c r="A24" s="60">
         <v>2017</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="72">
         <v>2126317</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="72">
         <v>20898</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="72">
         <v>23427</v>
       </c>
       <c r="E24" s="72">
@@ -3357,13 +3390,13 @@
       <c r="A25" s="60">
         <v>2018</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="72">
         <v>2117619</v>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="72">
         <v>20101</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="72">
         <v>23682</v>
       </c>
       <c r="E25" s="72">
@@ -3391,13 +3424,13 @@
       <c r="A26" s="60">
         <v>2019</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="72">
         <v>2108270</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="72">
         <v>19286</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="72">
         <v>23015</v>
       </c>
       <c r="E26" s="72">
@@ -3425,13 +3458,13 @@
       <c r="A27" s="60">
         <v>2020</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="72">
         <v>2056908</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="72">
         <v>18034</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="72">
         <v>27244</v>
       </c>
       <c r="E27" s="72">
@@ -3459,13 +3492,13 @@
       <c r="A28" s="60">
         <v>2021</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="72">
         <v>2038299</v>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="72">
         <v>16641</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="72">
         <v>30617</v>
       </c>
       <c r="E28" s="72">
@@ -3493,13 +3526,13 @@
       <c r="A29" s="60">
         <v>2022</v>
       </c>
-      <c r="B29" s="101">
+      <c r="B29" s="72">
         <v>2024637</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="72">
         <v>15218</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="72">
         <v>24924</v>
       </c>
       <c r="E29" s="72">
@@ -3523,17 +3556,17 @@
         <v>23093059.083900224</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="60">
         <v>2023</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B30" s="72">
         <v>2011047</v>
       </c>
-      <c r="C30" s="101">
+      <c r="C30" s="72">
         <v>13492</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="72">
         <v>22910</v>
       </c>
       <c r="E30" s="72">
@@ -3557,19 +3590,19 @@
         <v>42660803.274376415</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="102">
+      <c r="B31" s="82">
         <f>SUM(B10:B30)</f>
         <v>44790130</v>
       </c>
-      <c r="C31" s="102">
+      <c r="C31" s="82">
         <f>SUM(C10:C30)</f>
         <v>420494</v>
       </c>
-      <c r="D31" s="103">
+      <c r="D31" s="83">
         <f>SUM(D10:D30)</f>
         <v>496373</v>
       </c>
@@ -3579,33 +3612,33 @@
         <f>SUM(G10:G30)</f>
         <v>2446985396.333334</v>
       </c>
-      <c r="H31" s="106">
+      <c r="H31" s="86">
         <f>SUM(H10:H30)</f>
         <v>60099077816.666664</v>
       </c>
-      <c r="I31" s="102">
+      <c r="I31" s="82">
         <f>SUM(I10:I30)</f>
         <v>119581895.23809525</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="104">
+      <c r="B32" s="84">
         <f>AVERAGE(B10:B30)</f>
         <v>2132863.3333333335</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="84">
         <f>AVERAGE(C10:C30)</f>
         <v>20023.523809523809</v>
       </c>
     </row>
     <row r="33" spans="4:9">
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="89">
         <f>G31/SQRT(H31*I31)</f>
         <v>0.91277714515949371</v>
       </c>
@@ -3650,10 +3683,10 @@
         <f>STDEVPA(B10:B30)</f>
         <v>53496.362945649853</v>
       </c>
-      <c r="H42" s="107" t="s">
+      <c r="H42" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="107">
+      <c r="I42" s="87">
         <f>G40/(F42*F43)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -3673,10 +3706,10 @@
       </c>
     </row>
     <row r="48" spans="4:9">
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="108">
+      <c r="G48" s="88">
         <f>PEARSON(B10:B30,C10:C30)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -3715,18 +3748,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3734,18 +3767,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1"/>
+    <row r="2" spans="1:4" ht="14.4" thickBot="1"/>
     <row r="3" spans="1:4">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="100"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="14.4" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
@@ -3785,16 +3818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3802,28 +3835,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B3" s="96" t="s">
+    <row r="2" spans="1:5" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="B3" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="97"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="B4" s="105"/>
       <c r="C4" s="51" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="100"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="E4" s="108"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="B5" s="52" t="s">
         <v>56</v>
       </c>
@@ -3835,7 +3868,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="B6" s="49" t="s">
         <v>55</v>
       </c>
@@ -3847,7 +3880,7 @@
       </c>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="14.4">
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -3864,46 +3897,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1"/>
-    <row r="6" spans="1:8" ht="48" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="14.4" thickBot="1"/>
+    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -3917,11 +3952,18 @@
         <v>64</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="8">
+        <f>_xlfn.COVARIANCE.P(B7:B16,C7:C16)</f>
+        <v>-531.20999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3934,8 +3976,15 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="1">
+        <f>H6/(H8*H9)</f>
+        <v>-0.90413240184731014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3948,8 +3997,18 @@
       <c r="D8" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="1">
+        <f>_xlfn.STDEV.P(C7:C16)</f>
+        <v>7.854298186343577</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3962,8 +4021,15 @@
       <c r="D9" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1">
+        <f>_xlfn.STDEV.P(B7:B16)</f>
+        <v>74.804344793601388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -3977,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4070,18 @@
       <c r="D12" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="1">
+        <f>PEARSON(C7:C16,D7:D16)</f>
+        <v>-0.98157384827695304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
@@ -4018,8 +4094,15 @@
       <c r="D13" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="1">
+        <f>PEARSON(C7:C16,B7:B16)</f>
+        <v>-0.90413240184730992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -4033,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -4047,7 +4130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="14.4" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -4067,48 +4150,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4119,19 +4202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4144,7 +4227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1"/>
+    <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
     <row r="4" spans="1:3" ht="28.5" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>47</v>
@@ -4211,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="14.4" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -4228,18 +4311,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4247,7 +4330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="14.4" thickBot="1">
       <c r="A2" s="58" t="s">
         <v>85</v>
       </c>
@@ -4374,7 +4457,7 @@
       </c>
       <c r="G12" s="57"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="14.4" thickBot="1">
       <c r="A13" s="69">
         <v>10</v>
       </c>
@@ -4392,14 +4475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4417,21 +4500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4439,19 +4522,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15">
-      <c r="B3" s="86" t="s">
+    <row r="2" spans="1:5" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:5">
+      <c r="B3" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="87"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" thickBot="1">
+      <c r="B4" s="95"/>
       <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
@@ -4462,7 +4545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5">
       <c r="B5" s="28" t="s">
         <v>28</v>
       </c>
@@ -4476,7 +4559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5">
       <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
@@ -4490,7 +4573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5">
       <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="14.4" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
@@ -4543,68 +4626,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" thickBot="1"/>
     <row r="4" spans="1:14">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="B5" s="89"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" thickBot="1">
+      <c r="B5" s="97"/>
       <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
@@ -4652,7 +4735,7 @@
       </c>
       <c r="I7" s="53"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="14.4" thickBot="1">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4805,7 @@
       <c r="B21" s="54"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12">
       <c r="E22" s="53"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -4751,14 +4834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
